--- a/src/PQ Output Distributions.xlsx
+++ b/src/PQ Output Distributions.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I847854\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11985" windowHeight="7410"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="25060" windowHeight="12940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>x</t>
   </si>
@@ -132,16 +130,40 @@
   </si>
   <si>
     <t>0.8 0 0 0 0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="\μ\ \=\ #.###"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,10 +303,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,8 +397,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,8 +411,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="65">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -363,10 +517,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11284170019880554"/>
-          <c:y val="8.4113606956442155E-2"/>
-          <c:w val="0.50729309205770001"/>
-          <c:h val="0.73849639551819579"/>
+          <c:x val="0.12982697226541"/>
+          <c:y val="0.251188260558339"/>
+          <c:w val="0.827692913385827"/>
+          <c:h val="0.614202589083144"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -381,20 +535,20 @@
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="5"/>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="000090"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -402,24 +556,11 @@
           </c:marker>
           <c:dPt>
             <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="x"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="12700" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="0000FF"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -433,19 +574,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -457,19 +598,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.89900000000000002</c:v>
+                  <c:v>0.900261287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999997E-2</c:v>
+                  <c:v>0.051220734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>0.0229803094</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>0.0117452528</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>0.0137924168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,7 +621,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Mean PQ class</c:v>
+            <c:v>Mean PQ class (μ)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -501,13 +642,13 @@
             <c:numRef>
               <c:f>Sheet1!$D$16:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.1880000000000002</c:v>
+                  <c:v>1.1875867784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1880000000000002</c:v>
+                  <c:v>1.1875867784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,10 +660,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1180000000000001</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,7 +674,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Threshold class</c:v>
+            <c:v>Threshold class (μ+δ)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd" cmpd="sng">
@@ -552,13 +693,13 @@
             <c:numRef>
               <c:f>Sheet1!$F$16:$F$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.48655258804318</c:v>
+                  <c:v>3.486465132256613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.48655258804318</c:v>
+                  <c:v>3.486465132256613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,10 +711,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1180000000000001</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,15 +729,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="607375392"/>
-        <c:axId val="607919240"/>
+        <c:axId val="2125995848"/>
+        <c:axId val="2128891016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="607375392"/>
+        <c:axId val="2125995848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="1"/>
+          <c:max val="5.0"/>
+          <c:min val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -610,17 +751,14 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -631,7 +769,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -643,31 +781,27 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607919240"/>
+        <c:crossAx val="2128891016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="607919240"/>
+        <c:axId val="2128891016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -678,7 +812,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -690,18 +824,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607375392"/>
+        <c:crossAx val="2125995848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -709,10 +836,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.44776125041080572"/>
-          <c:y val="0.21229022024277944"/>
-          <c:w val="0.53526199427930365"/>
-          <c:h val="0.44542520120733425"/>
+          <c:x val="0.418499737532808"/>
+          <c:y val="0.00904160648557983"/>
+          <c:w val="0.566373053368329"/>
+          <c:h val="0.248045939523832"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -728,7 +855,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -751,10 +878,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -775,6 +899,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1339,15 +1464,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>312577</xdr:colOff>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>136070</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>97194</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47430</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1364,9 +1489,331 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15162</cdr:x>
+      <cdr:y>0.04726</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.26143</cdr:x>
+      <cdr:y>0.43121</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="Sheet1!$P$10">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="433256" y="101429"/>
+          <a:ext cx="313794" cy="824081"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="vert270" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" indent="0"/>
+          <a:fld id="{33ECFC80-2792-AD4E-8F78-43CDCFAD3BD5}" type="TxLink">
+            <a:rPr lang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>μ = 1.188</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.53883</cdr:x>
+      <cdr:y>0.29688</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.6514</cdr:x>
+      <cdr:y>0.68684</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="Sheet1!$P$9">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1539693" y="637187"/>
+          <a:ext cx="321674" cy="836986"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="vert270" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{310551AA-77E3-A248-A0BC-97A08E42EAD9}" type="TxLink">
+            <a:rPr lang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>μ + δ = 3.486</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1412,7 +1859,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1447,7 +1894,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1624,7 +2071,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1634,20 +2081,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16">
       <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
@@ -1656,7 +2103,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1673,135 +2120,146 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16">
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.89900000000000002</v>
+      <c r="D5" s="7">
+        <v>0.90026128699999997</v>
       </c>
       <c r="E5" s="6">
         <f>C5*D5</f>
-        <v>0.89900000000000002</v>
+        <v>0.90026128699999997</v>
       </c>
       <c r="F5" s="7">
         <f>C5-E10</f>
-        <v>-0.18800000000000017</v>
+        <v>-0.18758677840000004</v>
       </c>
       <c r="G5" s="8">
         <f>F5*F5</f>
-        <v>3.5344000000000063E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+        <v>3.5188799430490719E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16">
       <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
-        <v>5.0999999999999997E-2</v>
+      <c r="D6" s="7">
+        <v>5.1220733999999997E-2</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" ref="E6:E9" si="0">C6*D6</f>
-        <v>0.10199999999999999</v>
+        <v>0.10244146799999999</v>
       </c>
       <c r="F6" s="7">
         <f>C6-E10</f>
-        <v>0.81199999999999983</v>
+        <v>0.81241322159999996</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" ref="G6:G9" si="1">F6*F6</f>
-        <v>0.65934399999999971</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+        <v>0.66001524263049061</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16">
       <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
-        <v>2.3E-2</v>
+      <c r="D7" s="7">
+        <v>2.2980309399999999E-2</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>6.9000000000000006E-2</v>
+        <v>6.8940928200000001E-2</v>
       </c>
       <c r="F7" s="7">
         <f>C7-E10</f>
-        <v>1.8119999999999998</v>
+        <v>1.8124132216</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="1"/>
-        <v>3.2833439999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+        <v>3.2848416858304907</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16">
       <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
-        <v>1.2E-2</v>
+      <c r="D8" s="7">
+        <v>1.17452528E-2</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
-        <v>4.8000000000000001E-2</v>
+        <v>4.6981011199999999E-2</v>
       </c>
       <c r="F8" s="7">
         <f>C8-E10</f>
-        <v>2.8119999999999998</v>
+        <v>2.8124132216</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="1"/>
-        <v>7.9073439999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+        <v>7.9096681290304902</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16">
       <c r="C9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="1">
-        <v>1.4E-2</v>
+      <c r="D9" s="7">
+        <v>1.37924168E-2</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>6.8962084000000007E-2</v>
       </c>
       <c r="F9" s="7">
         <f>C9-E10</f>
-        <v>3.8119999999999998</v>
+        <v>3.8124132216</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="1"/>
-        <v>14.531343999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+        <v>14.534494572230491</v>
+      </c>
+      <c r="P9" s="21" t="str">
+        <f>"μ + δ = " &amp; TEXT(F16, "#.###")</f>
+        <v>μ + δ = 3.486</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16">
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="6">
         <f>SUM(D5:D9)</f>
-        <v>0.99900000000000011</v>
+        <v>1</v>
       </c>
       <c r="E10" s="6">
         <f>SUM(E5:E9)</f>
-        <v>1.1880000000000002</v>
+        <v>1.1875867784</v>
       </c>
       <c r="F10" s="7">
         <f>SUM(F5:F9)</f>
-        <v>9.0599999999999987</v>
+        <v>9.0620661079999998</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(G5:G9)</f>
-        <v>26.416719999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+        <v>26.424208429152451</v>
+      </c>
+      <c r="P10" s="20" t="str">
+        <f xml:space="preserve"> "μ = " &amp; TEXT( D16, "#.###")</f>
+        <v>μ = 1.188</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16">
       <c r="C11" s="9"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16">
       <c r="C12" s="9"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
@@ -1809,11 +2267,11 @@
       </c>
       <c r="F12" s="7">
         <f>G10/COUNT(C5:C9)</f>
-        <v>5.2833439999999996</v>
+        <v>5.2848416858304903</v>
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16">
       <c r="C13" s="9"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
@@ -1821,18 +2279,18 @@
       </c>
       <c r="F13" s="7">
         <f>SQRT(F12)</f>
-        <v>2.2985525880431799</v>
+        <v>2.2988783538566131</v>
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16">
       <c r="C14" s="9"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16">
       <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
@@ -1847,43 +2305,43 @@
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16">
       <c r="C16" s="9">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="18">
         <f>E10</f>
-        <v>1.1880000000000002</v>
-      </c>
-      <c r="E16" s="7">
+        <v>1.1875867784</v>
+      </c>
+      <c r="E16" s="18">
         <f>D16-F13</f>
-        <v>-1.1105525880431797</v>
-      </c>
-      <c r="F16" s="7">
+        <v>-1.1112915754566131</v>
+      </c>
+      <c r="F16" s="18">
         <f>D17+F13</f>
-        <v>3.48655258804318</v>
+        <v>3.4864651322566131</v>
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16">
       <c r="C17" s="11">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="D17" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="D17" s="19">
         <f>E10</f>
-        <v>1.1880000000000002</v>
-      </c>
-      <c r="E17" s="12">
+        <v>1.1875867784</v>
+      </c>
+      <c r="E17" s="19">
         <f>D17-F13</f>
-        <v>-1.1105525880431797</v>
-      </c>
-      <c r="F17" s="12">
+        <v>-1.1112915754566131</v>
+      </c>
+      <c r="F17" s="19">
         <f>D17+F13</f>
-        <v>3.48655258804318</v>
-      </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3.4864651322566131</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="2:16">
       <c r="K18" t="s">
         <v>13</v>
       </c>
@@ -1897,7 +2355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1912,7 +2370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1927,7 +2385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="B21" s="7"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -1942,7 +2400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16">
       <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>17</v>
@@ -1969,46 +2427,46 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16">
       <c r="B23" s="7"/>
-      <c r="C23" s="1">
-        <v>0.995</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.627</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.501</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.89900000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="7">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0.89522999999999997</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.62666100000000002</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.55700715000000001</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.50130643500000005</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.90026128699999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
       <c r="B24" s="7"/>
-      <c r="C24" s="1">
+      <c r="C24" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D24" s="1">
-        <v>0.104</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.223</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="H24" s="1">
-        <v>5.0999999999999997E-2</v>
+      <c r="D24" s="13">
+        <v>0.10397000000000001</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.162302</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.22266995000000001</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.25610367000000001</v>
+      </c>
+      <c r="H24" s="7">
+        <v>5.1220733999999997E-2</v>
       </c>
       <c r="K24" t="s">
         <v>14</v>
@@ -2023,25 +2481,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16">
       <c r="B25" s="7"/>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.115</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2.3E-2</v>
+      <c r="C25" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D25" s="13">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.100396</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.10292728</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.11490154700000001</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2.2980309399999999E-2</v>
       </c>
       <c r="L25" t="s">
         <v>24</v>
@@ -2050,25 +2508,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16">
       <c r="B26" s="7"/>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G26" s="1">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1.2E-2</v>
+      <c r="C26" s="7">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1.01E-4</v>
+      </c>
+      <c r="E26" s="7">
+        <v>5.5365200000000003E-2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>5.3815040000000001E-2</v>
+      </c>
+      <c r="G26" s="7">
+        <v>5.8726264E-2</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1.17452528E-2</v>
       </c>
       <c r="L26" t="s">
         <v>25</v>
@@ -2077,25 +2535,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16">
       <c r="B27" s="7"/>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F27" s="1">
-        <v>6.3E-2</v>
-      </c>
-      <c r="G27" s="1">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1.4E-2</v>
+      <c r="C27" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="E27" s="7">
+        <v>5.52758E-2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>6.3580579999999998E-2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>6.8962084000000007E-2</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1.37924168E-2</v>
       </c>
       <c r="L27" t="s">
         <v>26</v>
@@ -2104,7 +2562,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16">
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -2119,7 +2577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2128,7 +2586,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2137,61 +2595,133 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16">
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="E31" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F31" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G31" s="7">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0.89522999999999997</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0.10397000000000001</v>
+      </c>
+      <c r="F32" s="13">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="G32" s="13">
+        <v>1.01E-4</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1.9000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.62666100000000002</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.162302</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.100396</v>
+      </c>
+      <c r="G33" s="7">
+        <v>5.5365200000000003E-2</v>
+      </c>
+      <c r="H33" s="7">
+        <v>5.52758E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.55700715000000001</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.22266995000000001</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.10292728</v>
+      </c>
+      <c r="G34" s="7">
+        <v>5.3815040000000001E-2</v>
+      </c>
+      <c r="H34" s="7">
+        <v>6.3580579999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.50130643500000005</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.25610367000000001</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.11490154700000001</v>
+      </c>
+      <c r="G35" s="7">
+        <v>5.8726264E-2</v>
+      </c>
+      <c r="H35" s="7">
+        <v>6.8962084000000007E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.90026128699999997</v>
+      </c>
+      <c r="E36" s="7">
+        <v>5.1220733999999997E-2</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2.2980309399999999E-2</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1.17452528E-2</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1.37924168E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2200,7 +2730,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2209,7 +2739,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2224,7 +2754,12 @@
     <mergeCell ref="C21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/PQ Output Distributions.xlsx
+++ b/src/PQ Output Distributions.xlsx
@@ -4,11 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="25060" windowHeight="12940"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="25060" windowHeight="12940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="corr -1(1)" sheetId="2" r:id="rId2"/>
+    <sheet name="corr -1(2)" sheetId="3" r:id="rId3"/>
+    <sheet name="corr 0" sheetId="4" r:id="rId4"/>
+    <sheet name="corr +1" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'corr -1(1)'!$C$15:$D$19</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -22,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>x</t>
   </si>
@@ -134,6 +141,81 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>c*f1</t>
+  </si>
+  <si>
+    <t>c*f2</t>
+  </si>
+  <si>
+    <t>(x1-u1)2</t>
+  </si>
+  <si>
+    <t>(x2-u2)2</t>
+  </si>
+  <si>
+    <t>var1</t>
+  </si>
+  <si>
+    <t>var2</t>
+  </si>
+  <si>
+    <t>corr</t>
+  </si>
+  <si>
+    <t>sd1</t>
+  </si>
+  <si>
+    <t>mean2 - mean1</t>
+  </si>
+  <si>
+    <t>sd2</t>
+  </si>
+  <si>
+    <t>mean1</t>
+  </si>
+  <si>
+    <t>mean2</t>
+  </si>
+  <si>
+    <r>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -142,9 +224,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="\μ\ \=\ #.###"/>
+    <numFmt numFmtId="166" formatCode="\μ\ \=\ #.###"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +248,13 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -303,7 +392,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -369,8 +458,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,6 +558,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,12 +575,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -449,6 +609,41 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -481,6 +676,41 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -557,15 +787,6 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="12700" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="0000FF"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -729,11 +950,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125995848"/>
-        <c:axId val="2128891016"/>
+        <c:axId val="2084189016"/>
+        <c:axId val="2086401064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125995848"/>
+        <c:axId val="2084189016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -781,12 +1002,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128891016"/>
+        <c:crossAx val="2086401064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128891016"/>
+        <c:axId val="2086401064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -824,7 +1045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125995848"/>
+        <c:crossAx val="2084189016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.2"/>
@@ -868,6 +1089,1514 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.198995975503062"/>
+          <c:y val="0.0914247775241112"/>
+          <c:w val="0.756581977252843"/>
+          <c:h val="0.673374178819363"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PQ output distribution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000090"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'corr -1(1)'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'corr -1(1)'!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Threshold class (μ+δ)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'corr -1(1)'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'corr -1(1)'!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2140940904"/>
+        <c:axId val="2099004376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140940904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>PQ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t> class</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2099004376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2099004376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140940904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.198995975503062"/>
+          <c:y val="0.0914247775241112"/>
+          <c:w val="0.756581977252843"/>
+          <c:h val="0.673374178819363"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PQ output distribution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000090"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'corr -1(2)'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'corr -1(2)'!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Threshold class (μ+δ)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'corr -1(2)'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'corr -1(2)'!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2094993688"/>
+        <c:axId val="2095207336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2094993688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>PQ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t> class</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2095207336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2095207336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094993688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.198995975503062"/>
+          <c:y val="0.0914247775241112"/>
+          <c:w val="0.756581977252843"/>
+          <c:h val="0.673374178819363"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PQ output distribution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000090"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'corr 0'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'corr 0'!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Threshold class (μ+δ)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'corr 0'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'corr 0'!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2092332392"/>
+        <c:axId val="2098881784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2092332392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>PQ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t> class</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2098881784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2098881784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2092332392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.198995975503062"/>
+          <c:y val="0.0914247775241112"/>
+          <c:w val="0.756581977252843"/>
+          <c:h val="0.673374178819363"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PQ output distribution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000090"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'corr +1'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'corr +1'!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Threshold class (μ+δ)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'corr +1'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'corr +1'!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2091574248"/>
+        <c:axId val="2094126760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2091574248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>PQ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t> class</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094126760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2094126760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2091574248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1494,6 +3223,177 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73333</cdr:x>
+      <cdr:y>0.04142</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97443</cdr:x>
+      <cdr:y>0.24218</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2095500" y="88900"/>
+          <a:ext cx="688929" cy="430887"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" baseline="-25000"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t> = 1.22</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="-25000"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> = 2.30</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -1641,6 +3541,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:pPr marL="0" indent="0"/>
             <a:t>μ = 1.188</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1000" b="0">
@@ -1799,6 +3700,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>μ + δ = 3.486</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1000" b="0">
@@ -1814,6 +3716,667 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.74222</cdr:x>
+      <cdr:y>0.02924</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96048</cdr:x>
+      <cdr:y>0.22765</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2120900" y="63500"/>
+          <a:ext cx="623678" cy="430887"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" baseline="-25000"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t> = 2.8</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="-25000"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> = 3.2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73778</cdr:x>
+      <cdr:y>0.04142</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95604</cdr:x>
+      <cdr:y>0.24218</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2108200" y="88900"/>
+          <a:ext cx="623678" cy="430887"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" baseline="-25000"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t> = 4.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="-25000"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> = 1.9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73333</cdr:x>
+      <cdr:y>0.04142</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95503</cdr:x>
+      <cdr:y>0.24218</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2095500" y="88900"/>
+          <a:ext cx="633507" cy="430887"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" baseline="-25000"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t> = 2.7</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="-25000"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> = 2.3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2071,7 +4634,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2081,8 +4644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2095,13 +4658,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="3:16">
       <c r="C4" s="2" t="s">
@@ -2222,7 +4785,7 @@
         <f t="shared" si="1"/>
         <v>14.534494572230491</v>
       </c>
-      <c r="P9" s="21" t="str">
+      <c r="P9" s="17" t="str">
         <f>"μ + δ = " &amp; TEXT(F16, "#.###")</f>
         <v>μ + δ = 3.486</v>
       </c>
@@ -2247,7 +4810,7 @@
         <f>SUM(G5:G9)</f>
         <v>26.424208429152451</v>
       </c>
-      <c r="P10" s="20" t="str">
+      <c r="P10" s="16" t="str">
         <f xml:space="preserve"> "μ = " &amp; TEXT( D16, "#.###")</f>
         <v>μ = 1.188</v>
       </c>
@@ -2309,15 +4872,15 @@
       <c r="C16" s="9">
         <v>0</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="14">
         <f>E10</f>
         <v>1.1875867784</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="14">
         <f>D16-F13</f>
         <v>-1.1112915754566131</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="14">
         <f>D17+F13</f>
         <v>3.4864651322566131</v>
       </c>
@@ -2327,15 +4890,15 @@
       <c r="C17" s="11">
         <v>0.99</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="15">
         <f>E10</f>
         <v>1.1875867784</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="15">
         <f>D17-F13</f>
         <v>-1.1112915754566131</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="15">
         <f>D17+F13</f>
         <v>3.4864651322566131</v>
       </c>
@@ -2387,11 +4950,11 @@
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="7"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="7"/>
       <c r="L21" t="s">
         <v>21</v>
@@ -2762,4 +5325,1068 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>0.24</v>
+      </c>
+      <c r="D4">
+        <v>0.22</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>0.18</v>
+      </c>
+      <c r="G4">
+        <v>0.16</v>
+      </c>
+      <c r="H4">
+        <f>SUM(C4:G4)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>0.16</v>
+      </c>
+      <c r="D5">
+        <v>0.18</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0.22</v>
+      </c>
+      <c r="G5">
+        <v>0.24</v>
+      </c>
+      <c r="H5">
+        <f>SUM(C5:G5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <f>C3*C4</f>
+        <v>0.24</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:G6" si="0">D3*D4</f>
+        <v>0.44</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <f>C3*C5</f>
+        <v>0.16</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:G7" si="1">D3*D5</f>
+        <v>0.36</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.88</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <f>POWER(C3-D18,2)</f>
+        <v>3.2399999999999993</v>
+      </c>
+      <c r="D8">
+        <f>POWER(D3-D18,2)</f>
+        <v>0.63999999999999968</v>
+      </c>
+      <c r="E8">
+        <f>POWER(E3-D18,2)</f>
+        <v>4.000000000000007E-2</v>
+      </c>
+      <c r="F8">
+        <f>POWER(F3-D18,2)</f>
+        <v>1.4400000000000004</v>
+      </c>
+      <c r="G8">
+        <f>POWER(G3-D18,2)</f>
+        <v>4.8400000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <f>POWER(C3-D19,2)</f>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="D9">
+        <f>POWER(D3-D19,2)</f>
+        <v>1.4400000000000004</v>
+      </c>
+      <c r="E9">
+        <f>POWER(E3-D19,2)</f>
+        <v>4.000000000000007E-2</v>
+      </c>
+      <c r="F9">
+        <f>POWER(F3-D19,2)</f>
+        <v>0.63999999999999968</v>
+      </c>
+      <c r="G9">
+        <f>POWER(G3-D19,2)</f>
+        <v>3.2399999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <f>SUM(C8:G8)/COUNT(C3:G3)</f>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <f>SUM(C9:G9)/COUNT(C3:G3)</f>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <f>CORREL(C4:G4,C5:G5)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <f>SQRT(D12)</f>
+        <v>1.42828568570857</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16">
+        <f>D19-D18</f>
+        <v>0.40000000000000036</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <f>SQRT(D13)</f>
+        <v>1.42828568570857</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="16">
+      <c r="C18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <f>SUM(C6:G6)</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="16">
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <f>SUM(C7:G7)</f>
+        <v>3.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>SUM(C4:G4)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <f>SUM(C5:G5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <f>C3*C4</f>
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:G6" si="0">D3*D4</f>
+        <v>0.4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <f>C3*C5</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:G7" si="1">D3*D5</f>
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <f>POWER(C3-D18,2)</f>
+        <v>0.80999999999999983</v>
+      </c>
+      <c r="D8">
+        <f>POWER(D3-D18,2)</f>
+        <v>1.0000000000000018E-2</v>
+      </c>
+      <c r="E8">
+        <f>POWER(E3-D18,2)</f>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="F8">
+        <f>POWER(F3-D18,2)</f>
+        <v>4.41</v>
+      </c>
+      <c r="G8">
+        <f>POWER(G3-D18,2)</f>
+        <v>9.6100000000000012</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <f>POWER(C3-D19,2)</f>
+        <v>9.6099999999999977</v>
+      </c>
+      <c r="D9">
+        <f>POWER(D3-D19,2)</f>
+        <v>4.4099999999999984</v>
+      </c>
+      <c r="E9">
+        <f>POWER(E3-D19,2)</f>
+        <v>1.2099999999999993</v>
+      </c>
+      <c r="F9">
+        <f>POWER(F3-D19,2)</f>
+        <v>9.9999999999999291E-3</v>
+      </c>
+      <c r="G9">
+        <f>POWER(G3-D19,2)</f>
+        <v>0.81000000000000061</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <f>SUM(C8:G8)/COUNT(C3:G3)</f>
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <f>SUM(C9:G9)/COUNT(C3:G3)</f>
+        <v>3.2099999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <f>CORREL(C4:G4,C5:G5)</f>
+        <v>-0.85714285714285698</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <f>SQRT(D12)</f>
+        <v>1.7916472867168918</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16">
+        <f>D19-D18</f>
+        <v>2.1999999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <f>SQRT(D13)</f>
+        <v>1.7916472867168916</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <f>SUM(C6:G6)</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <f>SUM(C7:G7)</f>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>SUM(C4:G4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>0.4</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>SUM(C5:G5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <f>C3*C4</f>
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:G6" si="0">D3*D4</f>
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <f>C3*C5</f>
+        <v>0.4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:G7" si="1">D3*D5</f>
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <f>POWER(C3-D18,2)</f>
+        <v>2.8900000000000006</v>
+      </c>
+      <c r="D8">
+        <f>POWER(D3-D18,2)</f>
+        <v>0.49000000000000027</v>
+      </c>
+      <c r="E8">
+        <f>POWER(E3-D18,2)</f>
+        <v>8.99999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <f>POWER(F3-D18,2)</f>
+        <v>1.6899999999999995</v>
+      </c>
+      <c r="G8">
+        <f>POWER(G3-D18,2)</f>
+        <v>5.2899999999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <f>POWER(C3-D19,2)</f>
+        <v>1.6899999999999995</v>
+      </c>
+      <c r="D9">
+        <f>POWER(D3-D19,2)</f>
+        <v>8.99999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <f>POWER(E3-D19,2)</f>
+        <v>0.49000000000000027</v>
+      </c>
+      <c r="F9">
+        <f>POWER(F3-D19,2)</f>
+        <v>2.8900000000000006</v>
+      </c>
+      <c r="G9">
+        <f>POWER(G3-D19,2)</f>
+        <v>7.2900000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <f>SUM(C8:G8)/COUNT(C3:G3)</f>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <f>SUM(C9:G9)/COUNT(C3:G3)</f>
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <f>CORREL(C4:G4,C5:G5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <f>SQRT(D12)</f>
+        <v>1.4456832294800961</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16">
+        <f>D19-D18</f>
+        <v>-0.40000000000000036</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <f>SQRT(D13)</f>
+        <v>1.57797338380595</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <f>SUM(C6:G6)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <f>SUM(C7:G7)</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>0.85</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>0.03</v>
+      </c>
+      <c r="F4">
+        <v>0.02</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>SUM(C4:G4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>0.4</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <f>SUM(C5:G5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <f>C3*C4</f>
+        <v>0.85</v>
+      </c>
+      <c r="D6">
+        <f>D3*D4</f>
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <f>E3*E4</f>
+        <v>0.09</v>
+      </c>
+      <c r="F6">
+        <f>F3*F4</f>
+        <v>0.08</v>
+      </c>
+      <c r="G6">
+        <f>G3*G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <f>C3*C5</f>
+        <v>0.4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:G7" si="0">D3*D5</f>
+        <v>0.4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <f>POWER(C3-D18,2)</f>
+        <v>4.8400000000000089E-2</v>
+      </c>
+      <c r="D8">
+        <f>POWER(D3-D18,2)</f>
+        <v>0.60839999999999972</v>
+      </c>
+      <c r="E8">
+        <f>POWER(E3-D18,2)</f>
+        <v>3.1683999999999992</v>
+      </c>
+      <c r="F8">
+        <f>POWER(F3-D18,2)</f>
+        <v>7.7283999999999988</v>
+      </c>
+      <c r="G8">
+        <f>POWER(G3-D18,2)</f>
+        <v>14.288399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <f>POWER(C3-D19,2)</f>
+        <v>1.6900000000000006</v>
+      </c>
+      <c r="D9">
+        <f>POWER(D3-D19,2)</f>
+        <v>9.0000000000000163E-2</v>
+      </c>
+      <c r="E9">
+        <f>POWER(E3-D19,2)</f>
+        <v>0.4899999999999996</v>
+      </c>
+      <c r="F9">
+        <f>POWER(F3-D19,2)</f>
+        <v>2.8899999999999992</v>
+      </c>
+      <c r="G9">
+        <f>POWER(G3-D19,2)</f>
+        <v>7.2899999999999983</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <f>SUM(C8:G8)/COUNT(C3:G3)</f>
+        <v>5.1684000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <f>SUM(C9:G9)/COUNT(C3:G3)</f>
+        <v>2.4899999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <f>CORREL(C4:G4,C5:G5)</f>
+        <v>0.93873794250093867</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <f>SQRT(D12)</f>
+        <v>2.2734115333568625</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16">
+        <f>D19-D18</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <f>SQRT(D13)</f>
+        <v>1.57797338380595</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <f>SUM(C6:G6)</f>
+        <v>1.2200000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <f>SUM(C7:G7)</f>
+        <v>2.3000000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/src/PQ Output Distributions.xlsx
+++ b/src/PQ Output Distributions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="25060" windowHeight="12940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="25060" windowHeight="12940" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="corr -1(2)" sheetId="3" r:id="rId3"/>
     <sheet name="corr 0" sheetId="4" r:id="rId4"/>
     <sheet name="corr +1" sheetId="5" r:id="rId5"/>
+    <sheet name="mean" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'corr -1(1)'!$C$15:$D$19</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
   <si>
     <t>x</t>
   </si>
@@ -226,7 +227,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="\μ\ \=\ #.###"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +256,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -392,7 +400,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -528,8 +536,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,6 +581,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,7 +597,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -644,6 +665,11 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -711,6 +737,11 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -950,11 +981,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2084189016"/>
-        <c:axId val="2086401064"/>
+        <c:axId val="2099611320"/>
+        <c:axId val="2098651816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2084189016"/>
+        <c:axId val="2099611320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -1002,12 +1033,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086401064"/>
+        <c:crossAx val="2098651816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2086401064"/>
+        <c:axId val="2098651816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1045,7 +1076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084189016"/>
+        <c:crossAx val="2099611320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.2"/>
@@ -1322,11 +1353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2140940904"/>
-        <c:axId val="2099004376"/>
+        <c:axId val="2098744440"/>
+        <c:axId val="2098752600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2140940904"/>
+        <c:axId val="2098744440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -1398,12 +1429,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099004376"/>
+        <c:crossAx val="2098752600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2099004376"/>
+        <c:axId val="2098752600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1460,7 +1491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140940904"/>
+        <c:crossAx val="2098744440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.2"/>
@@ -1699,11 +1730,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094993688"/>
-        <c:axId val="2095207336"/>
+        <c:axId val="2099665176"/>
+        <c:axId val="2099673336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094993688"/>
+        <c:axId val="2099665176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -1775,12 +1806,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095207336"/>
+        <c:crossAx val="2099673336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2095207336"/>
+        <c:axId val="2099673336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1837,7 +1868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094993688"/>
+        <c:crossAx val="2099665176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.2"/>
@@ -2076,11 +2107,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2092332392"/>
-        <c:axId val="2098881784"/>
+        <c:axId val="2099722568"/>
+        <c:axId val="2099730728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2092332392"/>
+        <c:axId val="2099722568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -2152,12 +2183,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098881784"/>
+        <c:crossAx val="2099730728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2098881784"/>
+        <c:axId val="2099730728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2214,7 +2245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092332392"/>
+        <c:crossAx val="2099722568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.2"/>
@@ -2453,11 +2484,386 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2091574248"/>
-        <c:axId val="2094126760"/>
+        <c:axId val="2099780456"/>
+        <c:axId val="2099788616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2091574248"/>
+        <c:axId val="2099780456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>PQ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t> class</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2099788616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2099788616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2099780456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.144333493683065"/>
+          <c:y val="0.0914247775241112"/>
+          <c:w val="0.811244398308732"/>
+          <c:h val="0.737890208280416"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PQ output distribution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000090"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mean!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mean!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Threshold class (μ+δ)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mean!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mean!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2099837096"/>
+        <c:axId val="2099845256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2099837096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -2529,12 +2935,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094126760"/>
+        <c:crossAx val="2099845256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094126760"/>
+        <c:axId val="2099845256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2591,7 +2997,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091574248"/>
+        <c:crossAx val="2099837096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.2"/>
@@ -2605,7 +3011,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1"/>
       </a:solidFill>
@@ -3394,6 +3800,346 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.60472</cdr:x>
+      <cdr:y>0.0355</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84319</cdr:x>
+      <cdr:y>0.17231</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2388464" y="111811"/>
+          <a:ext cx="941899" cy="430887"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" baseline="-25000"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="-25000"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> = 3.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>δ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> =</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>δ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.41</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -4658,13 +5404,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="3:16">
       <c r="C4" s="2" t="s">
@@ -4950,11 +5696,11 @@
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="7"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="7"/>
       <c r="L21" t="s">
         <v>21</v>
@@ -5331,8 +6077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6129,8 +6875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6378,6 +7124,336 @@
         <f>SUM(C7:G7)</f>
         <v>2.3000000000000003</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="2:16">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="2:16">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>SUM(C4:G4)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="H5">
+        <f>SUM(C5:G5)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <f>C3*C4</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>D3*D4</f>
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <f>E3*E4</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="F6">
+        <f>F3*F4</f>
+        <v>0.4</v>
+      </c>
+      <c r="G6">
+        <f>G3*G4</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <f>C3*C5</f>
+        <v>0.45</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:G7" si="0">D3*D5</f>
+        <v>0.04</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <f>POWER(C3-D18,2)</f>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="D8">
+        <f>POWER(D3-D18,2)</f>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="E8">
+        <f>POWER(E3-D18,2)</f>
+        <v>1.9721522630525295E-31</v>
+      </c>
+      <c r="F8">
+        <f>POWER(F3-D18,2)</f>
+        <v>0.99999999999999911</v>
+      </c>
+      <c r="G8">
+        <f>POWER(G3-D18,2)</f>
+        <v>3.9999999999999982</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <f>POWER(C3-D19,2)</f>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f>POWER(D3-D19,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>POWER(E3-D19,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>POWER(F3-D19,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>POWER(G3-D19,2)</f>
+        <v>4</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <f>SUM(C8:G8)/COUNT(C3:G3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <f>SUM(C9:G9)/COUNT(C3:G3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <f>CORREL(C4:G4,C5:G5)</f>
+        <v>-0.47686391600289407</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <f>SQRT(D12)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16">
+        <f>D19-D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <f>SQRT(D13)</f>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <f>SUM(C6:G6)</f>
+        <v>3.0000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <f>SUM(C7:G7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
